--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D7358C0-D110-4B30-9C20-BB961354DE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skude\PycharmProjects\KNN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C24FF-928D-4ED1-A9C1-4819037CFCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1224" yWindow="1344" windowWidth="17976" windowHeight="9216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,67 +33,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>1 2</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>3 4</t>
-  </si>
-  <si>
-    <t>6 7</t>
-  </si>
-  <si>
-    <t>9 10</t>
-  </si>
-  <si>
-    <t>13 14</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>21 22</t>
-  </si>
-  <si>
-    <t>41 42</t>
-  </si>
-  <si>
-    <t>43 44</t>
-  </si>
-  <si>
-    <t>45 46</t>
-  </si>
-  <si>
-    <t>51 52</t>
-  </si>
-  <si>
-    <t>61 62</t>
-  </si>
-  <si>
-    <t>63 64</t>
-  </si>
-  <si>
-    <t>99 100</t>
-  </si>
-  <si>
-    <t>111 112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134 135 </t>
-  </si>
-  <si>
-    <t>152 153</t>
+    <t>1 4</t>
+  </si>
+  <si>
+    <t>2 4</t>
+  </si>
+  <si>
+    <t>2 1</t>
+  </si>
+  <si>
+    <t>5 1</t>
+  </si>
+  <si>
+    <t>6 1</t>
+  </si>
+  <si>
+    <t>6 2</t>
+  </si>
+  <si>
+    <t>6 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,144 +408,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
